--- a/Data/Exceldata.xlsx
+++ b/Data/Exceldata.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="3720" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="6135" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" r:id="rId9" sheetId="6"/>
+    <sheet name="Sheet7" r:id="rId10" sheetId="7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O18"/>
+  <oleSize ref="A1:P18"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
   <si>
     <t>Animal Name</t>
   </si>
@@ -136,13 +139,23 @@
     <t/>
   </si>
   <si>
-    <t>Will Smith</t>
+    <t xml:space="preserve">Bruce </t>
+  </si>
+  <si>
+    <t>Sagar</t>
+  </si>
+  <si>
+    <t>sagar</t>
+  </si>
+  <si>
+    <t>TOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,15 +480,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.28515625"/>
+    <col min="2" max="2" customWidth="true" width="16.28515625"/>
+    <col min="3" max="3" customWidth="true" width="22.7109375"/>
+    <col min="4" max="4" customWidth="true" width="15.140625"/>
+    <col min="5" max="5" customWidth="true" width="43.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -484,20 +497,20 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -505,7 +518,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -514,7 +527,7 @@
       <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -522,7 +535,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -531,15 +544,15 @@
       <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -548,15 +561,15 @@
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -565,15 +578,15 @@
       <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -582,10 +595,10 @@
       <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -605,7 +618,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>30</v>
       </c>
     </row>
@@ -622,30 +635,30 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.0"/>
+    <col min="2" max="2" customWidth="true" width="18.28515625"/>
+    <col min="3" max="3" customWidth="true" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
+      <c r="A2" t="s" s="0">
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>36</v>
@@ -655,7 +668,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -666,8 +679,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
+      <c r="A4" t="s" s="0">
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>36</v>
@@ -682,22 +695,103 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
+      <c r="A1" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="F1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="F1" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="F2" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="F3" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="F4" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="F5" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>